--- a/analysis/obt/202305.xlsx
+++ b/analysis/obt/202305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CostOfLivingTracker\analysis\obt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7BB6E-315B-40F2-9048-8E0E2EBA2638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6F2242-ECC6-4871-AF68-7A8024A2BB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -280,9 +280,6 @@
     <t>WOOLWORTHS/BELMONT FORUM - Visa Purchase - Receipt 103561In BELMONT Date 19 May 2023 Card 462263xxxxxx4784</t>
   </si>
   <si>
-    <t>INFINITY CARE - Visa Purchase - Receipt 147320In East Perth Date 19 May 2023 Card 462263xxxxxx8311</t>
-  </si>
-  <si>
     <t>AMAZON MARKETPLACE AU - Visa Refund - Receipt 158459 In SYDNEY SOUTH Date 18 May 2023 Card 462263xxxxxx8311</t>
   </si>
   <si>
@@ -473,12 +470,18 @@
   </si>
   <si>
     <t>Gifts</t>
+  </si>
+  <si>
+    <t>Porter Matthews Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,11 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,13 +925,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,13 +945,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,13 +965,13 @@
         <v>394.35</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,13 +985,13 @@
         <v>69.89</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,13 +1005,13 @@
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,13 +1025,13 @@
         <v>25.7</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,13 +1045,13 @@
         <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,13 +1065,13 @@
         <v>8.9</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,13 +1085,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,13 +1125,13 @@
         <v>37.200000000000003</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,13 +1145,13 @@
         <v>66.739999999999995</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,10 +1168,10 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,13 +1185,13 @@
         <v>55.61</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,13 +1205,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,13 +1225,13 @@
         <v>34.36</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,13 +1245,13 @@
         <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,13 +1265,13 @@
         <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,13 +1285,13 @@
         <v>49.05</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,13 +1305,13 @@
         <v>28.29</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,13 +1325,13 @@
         <v>17.309999999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,10 +1348,10 @@
         <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,13 +1365,13 @@
         <v>11.99</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,13 +1385,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,13 +1405,13 @@
         <v>35.299999999999997</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,13 +1425,13 @@
         <v>36.4</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,10 +1448,10 @@
         <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,13 +1465,13 @@
         <v>60.5</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,13 +1485,13 @@
         <v>38.75</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,13 +1505,13 @@
         <v>3.3</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,13 +1525,13 @@
         <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,13 +1545,13 @@
         <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,10 +1568,10 @@
         <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,13 +1585,13 @@
         <v>20.75</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,56 +1602,56 @@
         <v>85</v>
       </c>
       <c r="C36">
-        <v>11.17</v>
+        <v>-50.58</v>
       </c>
       <c r="D36" t="s">
         <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
       <c r="C37">
-        <v>-50.58</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
       <c r="C38">
-        <v>37.119999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,16 +1662,16 @@
         <v>88</v>
       </c>
       <c r="C39">
-        <v>30.5</v>
+        <v>42.17</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,76 +1682,73 @@
         <v>89</v>
       </c>
       <c r="C40">
-        <v>42.17</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
       <c r="C41">
-        <v>37.119999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>37</v>
+      <c r="A43" s="2">
+        <v>45069</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C43">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
+        <v>10000</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,19 +1756,19 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>41.51</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,19 +1776,19 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,7 +1796,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>26.19</v>
@@ -1804,10 +1805,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,13 +1822,13 @@
         <v>3.1</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,19 +1836,19 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,19 +1856,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>24.36</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,19 +1876,19 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>63.69</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,19 +1896,19 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,19 +1916,19 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>45</v>
       </c>
       <c r="D52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" t="s">
         <v>141</v>
-      </c>
-      <c r="E52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,13 +1942,13 @@
         <v>42.89</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,19 +1956,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,13 +1982,13 @@
         <v>59.5</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,10 +2005,10 @@
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,16 +2033,16 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C58">
         <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,19 +2050,19 @@
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,19 +2070,19 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>4.5999999999999996</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,19 +2090,19 @@
         <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,19 +2110,19 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62">
         <v>22.99</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
